--- a/public/file_input.xlsx
+++ b/public/file_input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Floder vicky\absensiSiswaBN\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rplsm\Documents\Folder vicky\absensiSiswaBN\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBAACD6-3951-474F-8A5A-9A5877B2955A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12900"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nama Siswa</t>
   </si>
@@ -42,42 +43,12 @@
   </si>
   <si>
     <t>Jenis Kelamin</t>
-  </si>
-  <si>
-    <t>vicky</t>
-  </si>
-  <si>
-    <t>XII</t>
-  </si>
-  <si>
-    <t>RPL</t>
-  </si>
-  <si>
-    <t>Laki-Laki</t>
-  </si>
-  <si>
-    <t>uga</t>
-  </si>
-  <si>
-    <t>Perempuan</t>
-  </si>
-  <si>
-    <t>Kuliner</t>
-  </si>
-  <si>
-    <t>XI</t>
-  </si>
-  <si>
-    <t>loy</t>
-  </si>
-  <si>
-    <t>elvis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,23 +386,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -451,85 +422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1011542</v>
-      </c>
-      <c r="C2" s="1">
-        <v>533454654</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1011541</v>
-      </c>
-      <c r="C3" s="1">
-        <v>987438742</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1011273</v>
-      </c>
-      <c r="C4" s="1">
-        <v>587342874</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1113763</v>
-      </c>
-      <c r="C5" s="1">
-        <v>453872622</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I5" s="1"/>
     </row>
   </sheetData>
